--- a/聚丙烯(PP)/eta/油制PP盘面利润拟合残差-WTI原油期货价格_月度数据.xlsx
+++ b/聚丙烯(PP)/eta/油制PP盘面利润拟合残差-WTI原油期货价格_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>-469.8</v>
+        <v>-344.9</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-411</v>
+        <v>-413.4</v>
       </c>
       <c r="C3" t="n">
-        <v>-267.1</v>
+        <v>-262.9</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>-278.6</v>
       </c>
       <c r="C4" t="n">
-        <v>-195.6</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="5">
@@ -497,7 +497,7 @@
         <v>-118.6</v>
       </c>
       <c r="C5" t="n">
-        <v>-118.5</v>
+        <v>-118.6</v>
       </c>
     </row>
     <row r="6">
@@ -601,7 +601,7 @@
         <v>66.5</v>
       </c>
       <c r="C13" t="n">
-        <v>66.59999999999999</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="14">
@@ -640,7 +640,7 @@
         <v>67.8</v>
       </c>
       <c r="C16" t="n">
-        <v>67.90000000000001</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17">
@@ -653,7 +653,7 @@
         <v>88.8</v>
       </c>
       <c r="C17" t="n">
-        <v>88.7</v>
+        <v>88.59999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -679,7 +679,7 @@
         <v>106.8</v>
       </c>
       <c r="C19" t="n">
-        <v>106.9</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
@@ -692,7 +692,7 @@
         <v>86.2</v>
       </c>
       <c r="C20" t="n">
-        <v>86.2</v>
+        <v>86.09999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -705,7 +705,7 @@
         <v>-162.1</v>
       </c>
       <c r="C21" t="n">
-        <v>-162</v>
+        <v>-162.1</v>
       </c>
     </row>
     <row r="22">
@@ -718,7 +718,7 @@
         <v>-122.5</v>
       </c>
       <c r="C22" t="n">
-        <v>-122.6</v>
+        <v>-122.5</v>
       </c>
     </row>
     <row r="23">
@@ -744,7 +744,7 @@
         <v>-162.1</v>
       </c>
       <c r="C24" t="n">
-        <v>-162.1</v>
+        <v>-162.2</v>
       </c>
     </row>
     <row r="25">
